--- a/Dictionnaire.xlsx
+++ b/Dictionnaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b8bbc7a62c58cb74/Bureau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_AD4D9D64A577C15A4A54182E589A657E5BDEDD89" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="11_AD4D9D64A577C15A4A54182E589A657E5BDEDD89" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A5A9AB3-AA54-416D-83E5-EA01FA920B8E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,173 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t>Nom de l'attribut</t>
+  </si>
+  <si>
+    <t>Signification</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>E/Co</t>
+  </si>
+  <si>
+    <t>Calculé</t>
+  </si>
+  <si>
+    <t>Id_User</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Prenom</t>
+  </si>
+  <si>
+    <t>Date_naissance</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Tel</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>Est_Admin</t>
+  </si>
+  <si>
+    <t>Date_creation_cpt</t>
+  </si>
+  <si>
+    <t>Etat_cpt</t>
+  </si>
+  <si>
+    <t>Id_adresse</t>
+  </si>
+  <si>
+    <t>Ville</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Rue</t>
+  </si>
+  <si>
+    <t>n_maison</t>
+  </si>
+  <si>
+    <t>n_appart</t>
+  </si>
+  <si>
+    <t>Nom_maison</t>
+  </si>
+  <si>
+    <t>Id_maison</t>
+  </si>
+  <si>
+    <t>Eva_eco</t>
+  </si>
+  <si>
+    <t>Deg_Iso</t>
+  </si>
+  <si>
+    <t>Nb_appart</t>
+  </si>
+  <si>
+    <t>Id_appart</t>
+  </si>
+  <si>
+    <t>type_appart</t>
+  </si>
+  <si>
+    <t>deg_secu</t>
+  </si>
+  <si>
+    <t>libel_piece</t>
+  </si>
+  <si>
+    <t>nombre de pièces</t>
+  </si>
+  <si>
+    <t>Id_appareil</t>
+  </si>
+  <si>
+    <t>nom_appareil</t>
+  </si>
+  <si>
+    <t>type_appareil</t>
+  </si>
+  <si>
+    <t>libel_appareil</t>
+  </si>
+  <si>
+    <t>Id_ressource</t>
+  </si>
+  <si>
+    <t>nom_ressource</t>
+  </si>
+  <si>
+    <t>min_ressource</t>
+  </si>
+  <si>
+    <t>max_ressource</t>
+  </si>
+  <si>
+    <t>crit_ressource</t>
+  </si>
+  <si>
+    <t>ideal_ressource</t>
+  </si>
+  <si>
+    <t>Id_substance</t>
+  </si>
+  <si>
+    <t>nom_substance</t>
+  </si>
+  <si>
+    <t>min_substance</t>
+  </si>
+  <si>
+    <t>max_substance</t>
+  </si>
+  <si>
+    <t>crit_substance</t>
+  </si>
+  <si>
+    <t>ideal_substance</t>
+  </si>
+  <si>
+    <t>Autoincrement des titres de propriétaires</t>
+  </si>
+  <si>
+    <t>Debut_loc</t>
+  </si>
+  <si>
+    <t>Id_loc</t>
+  </si>
+  <si>
+    <t>Fin_loc</t>
+  </si>
+  <si>
+    <t>Id_poss</t>
+  </si>
+  <si>
+    <t>Debut_poss</t>
+  </si>
+  <si>
+    <t>Fin_poss</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,12 +504,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.81640625" customWidth="1"/>
+    <col min="2" max="2" width="37.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="6.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>